--- a/pred_ohlcv/54_21/2019-10-31 CMT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 CMT ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>1496482.3601</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>981457.5910666675</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>972710.7472666674</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>969094.4977666674</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>863515.4122666674</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>903394.6710666673</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>818324.2330666673</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>818324.2330666673</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>814455.9660666673</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>814455.9660666673</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>814455.9660666673</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1085769.908366667</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1074919.002266667</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1074919.002266667</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1100735.949966667</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1100735.949966667</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1245799.572866667</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>9711867.008140923</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>9888788.351651814</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>10020362.34675181</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>10165697.82285181</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>10413859.7292269</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>10733669.3704269</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>9936935.015126897</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>9982028.238626897</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>10321775.45319303</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>10663298.56485296</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>10508712.90294492</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>10777478.28783688</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>11846107.64413719</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>11089113.94433719</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>11089113.94433719</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>11580366.43979216</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>11817040.63862682</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>10765394.09952682</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>10488635.03952682</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>10546588.12262682</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>10969227.23502682</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>11947401.13754489</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>12687907.57691106</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>11769397.646767</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>11213921.950667</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>11687097.208167</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>12228431.439467</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>12228431.439467</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>12228431.439467</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>11954098.525467</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>11166580.42296699</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>10839222.11236699</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>11368114.43014868</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>10877025.76714868</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>11064087.91004868</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>11329107.92337951</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>11299742.39897951</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>11378268.67177952</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>11378268.67177952</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>11223151.19987952</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>11223151.19987952</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>10894366.50617952</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>11012423.03997952</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>10809450.64027951</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>10673598.46177951</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>10252011.51619046</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>10456087.23109046</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>10276173.66869046</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>10107432.74199046</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>9918908.551290456</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>9712437.251890456</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>9764014.141790457</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>9957499.868590457</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>9893258.945590457</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>9956332.420512276</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>1140943.015533248</v>
       </c>
       <c r="H810">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>702742.6308332474</v>
       </c>
       <c r="H865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>1085328.944933248</v>
       </c>
       <c r="H880">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>1085328.944933248</v>
       </c>
       <c r="H881">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>1085328.944933248</v>
       </c>
       <c r="H882">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>1085328.944933248</v>
       </c>
       <c r="H883">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>1085328.944933248</v>
       </c>
       <c r="H884">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>1088045.330033248</v>
       </c>
       <c r="H885">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>1074419.943533248</v>
       </c>
       <c r="H886">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>1114177.238833248</v>
       </c>
       <c r="H887">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>995555.8404332476</v>
       </c>
       <c r="H888">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>995555.8404332476</v>
       </c>
       <c r="H889">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>995555.8404332476</v>
       </c>
       <c r="H890">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>995555.8404332476</v>
       </c>
       <c r="H891">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>1214681.256233248</v>
       </c>
       <c r="H892">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>1229617.830833248</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>1156117.830833248</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>1156167.830833248</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>1156177.830833248</v>
       </c>
       <c r="H896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>1151599.908133248</v>
       </c>
       <c r="H897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>1144158.065933248</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>1144168.065933248</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>1105168.065933248</v>
       </c>
       <c r="H900">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>1105178.065933248</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>1092178.065933248</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>1092178.065933248</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>1133778.065933248</v>
       </c>
       <c r="H904">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>1133778.065933248</v>
       </c>
       <c r="H905">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 CMT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 CMT ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>1496482.3601</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1642637.5401</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1981791.6082</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>9711867.008140923</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>9888788.351651814</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>10020362.34675181</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>10165697.82285181</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>10413859.7292269</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>10733669.3704269</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>9936935.015126897</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>9982028.238626897</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>10321775.45319303</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>10663298.56485296</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>10508712.90294492</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>10777478.28783688</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>11846107.64413719</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>11089113.94433719</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>11089113.94433719</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>11580366.43979216</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>11817040.63862682</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>10765394.09952682</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>10488635.03952682</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>10546588.12262682</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>10969227.23502682</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>12591748.13731156</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>11947401.13754489</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>12687907.57691106</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>11769397.646767</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>11213921.950667</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>11687097.208167</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>12228431.439467</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>12228431.439467</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>12228431.439467</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>11954098.525467</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>11166580.42296699</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>10839222.11236699</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>11368114.43014868</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>10877025.76714868</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>11064087.91004868</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>11329107.92337951</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>11299742.39897951</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>11378268.67177952</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>11378268.67177952</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>11223151.19987952</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>11223151.19987952</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>10894366.50617952</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>11012423.03997952</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>10809450.64027951</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>10673598.46177951</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>10252011.51619046</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>10456087.23109046</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>10275723.99949046</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>10276173.66869046</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>10107432.74199046</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>9918908.551290456</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>9712437.251890456</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
